--- a/Flask/Tablero/problemas_redmine.xlsx
+++ b/Flask/Tablero/problemas_redmine.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -44,21 +44,21 @@
     <t>Modulos F</t>
   </si>
   <si>
+    <t>Incidente Mi RC</t>
+  </si>
+  <si>
     <t>Incidente RCD</t>
   </si>
   <si>
-    <t>Incidente Mi RC</t>
-  </si>
-  <si>
     <t>Consulta ciudadano</t>
   </si>
   <si>
+    <t>Juan Pablo Suarez</t>
+  </si>
+  <si>
     <t>Ignacio Noriega</t>
   </si>
   <si>
-    <t>Juan Pablo Suarez</t>
-  </si>
-  <si>
     <t>Federico Trigos</t>
   </si>
   <si>
@@ -71,6 +71,9 @@
     <t>Lautaro  Carracedo</t>
   </si>
   <si>
+    <t>Vicuña Mackenna 843</t>
+  </si>
+  <si>
     <t>Ballesteros 754</t>
   </si>
   <si>
@@ -114,6 +117,9 @@
   </si>
   <si>
     <t>Personal</t>
+  </si>
+  <si>
+    <t>Rectificación de Acta a Pedido de Parte Interesada</t>
   </si>
   <si>
     <t>Marginales</t>
@@ -484,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,7 +527,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>37939</v>
+        <v>37955</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -533,24 +539,24 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>45205.54613425926</v>
+        <v>45205.60527777778</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>37936</v>
+        <v>37939</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -562,24 +568,24 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>45205.53851851852</v>
+        <v>45205.54613425926</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>37932</v>
+        <v>37936</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -591,30 +597,30 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>45205.54612268518</v>
+        <v>45205.53851851852</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>37929</v>
+        <v>37932</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -626,10 +632,10 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
         <v>35</v>
@@ -637,7 +643,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>37927</v>
+        <v>37929</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -649,53 +655,53 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>45205.52870370371</v>
+        <v>45205.54612268518</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>37926</v>
+        <v>37927</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>45205.51791666666</v>
+        <v>45205.52870370371</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>37920</v>
+        <v>37926</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -707,88 +713,88 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>45205.54612268518</v>
+        <v>45205.51791666666</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>37918</v>
+        <v>37920</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>45205.49841435185</v>
+        <v>45205.54612268518</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>37913</v>
+        <v>37918</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>45205.54612268518</v>
+        <v>45205.49841435185</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>37912</v>
+        <v>37913</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -797,27 +803,27 @@
         <v>45205.54612268518</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>37911</v>
+        <v>37912</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -829,24 +835,24 @@
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>37910</v>
+        <v>37911</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -855,146 +861,146 @@
         <v>45205.54612268518</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>37896</v>
+        <v>37910</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>45205.49841435185</v>
+        <v>45205.54612268518</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>37716</v>
+        <v>37896</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>45205.50268518519</v>
+        <v>45205.49841435185</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>37512</v>
+        <v>37716</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="2">
-        <v>45205.49825231481</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
+        <v>45205.50268518519</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>37098</v>
+        <v>37512</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2">
-        <v>45205.48225694444</v>
+        <v>45205.49825231481</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>36829</v>
+        <v>37098</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2">
-        <v>45205.4814699074</v>
+        <v>45205.48225694444</v>
       </c>
       <c r="F18" t="s">
         <v>28</v>
@@ -1003,10 +1009,39 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>36829</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45205.4814699074</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
